--- a/benthic.xlsx
+++ b/benthic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Documents\GitHub\shimoni_reef_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76831E03-80BE-48FB-874F-416C6BAE63DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5ABD2A-8822-439C-A32C-0ABC777FB4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{ABF00EAA-42FA-4652-B632-DC809062EC91}"/>
   </bookViews>
@@ -348,19 +348,19 @@
     <t>P152</t>
   </si>
   <si>
-    <t>Hard.coral</t>
-  </si>
-  <si>
-    <t>Soft.coral</t>
-  </si>
-  <si>
-    <t>Turf.algae</t>
-  </si>
-  <si>
     <t>Macroalgae</t>
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Hard coral</t>
+  </si>
+  <si>
+    <t>Soft coral</t>
+  </si>
+  <si>
+    <t>Turf algae</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
